--- a/fuentes/contenidos/grado09/guion11/ES_CN_09_11_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion11/ES_CN_09_11_CO.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="263">
   <si>
     <t>Asignatura</t>
   </si>
@@ -470,9 +470,6 @@
     <t>Actividades relacionadas con los materiales conductores y materiales aislantes</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: materiales conductores y materiales aislantes</t>
-  </si>
-  <si>
     <t>El circuito eléctrico: funcionamiento</t>
   </si>
   <si>
@@ -560,9 +557,6 @@
     <t>¿Qué tanto sabes sobre temperatura?</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: la temperatura</t>
-  </si>
-  <si>
     <t>Completar las 10 preguntas y modificar las preguntas según el guión</t>
   </si>
   <si>
@@ -713,9 +707,6 @@
     <t>10 preguntas</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: la propagación del calor</t>
-  </si>
-  <si>
     <t>Actividad sobre la propagación del calor</t>
   </si>
   <si>
@@ -776,9 +767,6 @@
     <t>Actividad diseñada para que el estudiante complete un texto relacionado con el funcionamiento del motor diésel</t>
   </si>
   <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: máquinas de combustión </t>
-  </si>
-  <si>
     <t>Actividad que diferentes actividades para consolidar los conceptos de combustión interna y externa</t>
   </si>
   <si>
@@ -816,6 +804,15 @@
   </si>
   <si>
     <t>Banco de actividades: Calor y temperatura</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La temperatura</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Materiales conductores y materiales aislantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Máquinas de combustión </t>
   </si>
 </sst>
 </file>
@@ -1183,34 +1180,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1258,29 +1261,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1590,8 +1587,8 @@
   <dimension ref="A1:U280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,25 +1616,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="92" t="s">
-        <v>173</v>
+      <c r="E1" s="94" t="s">
+        <v>172</v>
       </c>
       <c r="F1" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="87" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="79" t="s">
@@ -1646,85 +1643,85 @@
       <c r="I1" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="L1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="M1" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="71" t="s">
+      <c r="N1" s="93"/>
+      <c r="O1" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="73" t="s">
+      <c r="S1" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="75" t="s">
+      <c r="T1" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="73" t="s">
+      <c r="U1" s="98" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="93"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="95"/>
       <c r="F2" s="80"/>
-      <c r="G2" s="86"/>
+      <c r="G2" s="88"/>
       <c r="H2" s="80"/>
       <c r="I2" s="80"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="88"/>
       <c r="M2" s="27" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="74"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="99"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="21"/>
       <c r="G3" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
@@ -1733,7 +1730,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>20</v>
@@ -1770,20 +1767,20 @@
         <v>17</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H4" s="21">
         <v>2</v>
@@ -1792,7 +1789,7 @@
         <v>19</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>19</v>
@@ -1807,19 +1804,19 @@
         <v>19</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R4" s="11" t="s">
         <v>141</v>
       </c>
       <c r="S4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1827,20 +1824,20 @@
         <v>17</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H5" s="21">
         <v>3</v>
@@ -1849,7 +1846,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>20</v>
@@ -1886,22 +1883,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="D6" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="21">
         <v>4</v>
@@ -1910,7 +1907,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -1931,36 +1928,36 @@
         <v>133</v>
       </c>
       <c r="S6" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="U6" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="D7" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H7" s="57">
         <v>5</v>
@@ -1969,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K7" s="60" t="s">
         <v>20</v>
@@ -2004,24 +2001,24 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="D8" s="40" t="s">
         <v>159</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>160</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>121</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="43" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="H8" s="44">
         <v>6</v>
@@ -2043,25 +2040,25 @@
         <v>52</v>
       </c>
       <c r="O8" s="42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P8" s="42" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R8" s="50" t="s">
         <v>141</v>
       </c>
       <c r="S8" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="T8" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="U8" s="49" t="s">
         <v>165</v>
-      </c>
-      <c r="T8" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="U8" s="49" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2069,18 +2066,18 @@
         <v>17</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D9" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="25"/>
       <c r="G9" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H9" s="21">
         <v>7</v>
@@ -2089,7 +2086,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>20</v>
@@ -2117,7 +2114,7 @@
         <v>125</v>
       </c>
       <c r="T9" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U9" s="37" t="s">
         <v>127</v>
@@ -2128,20 +2125,20 @@
         <v>17</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D10" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H10" s="21">
         <v>8</v>
@@ -2150,7 +2147,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
@@ -2165,19 +2162,19 @@
         <v>19</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R10" s="11" t="s">
         <v>141</v>
       </c>
       <c r="S10" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2185,20 +2182,20 @@
         <v>17</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D11" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H11" s="21">
         <v>9</v>
@@ -2207,7 +2204,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2228,13 +2225,13 @@
         <v>133</v>
       </c>
       <c r="S11" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2242,20 +2239,20 @@
         <v>17</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D12" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H12" s="21">
         <v>10</v>
@@ -2264,7 +2261,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -2290,7 +2287,7 @@
         <v>123</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="U12" s="10" t="s">
         <v>124</v>
@@ -2301,20 +2298,20 @@
         <v>17</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D13" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H13" s="21">
         <v>11</v>
@@ -2323,7 +2320,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -2344,13 +2341,13 @@
         <v>133</v>
       </c>
       <c r="S13" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="U13" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2358,22 +2355,22 @@
         <v>17</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D14" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H14" s="21">
         <v>12</v>
@@ -2382,7 +2379,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2403,36 +2400,36 @@
         <v>133</v>
       </c>
       <c r="S14" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="97" t="s">
-        <v>159</v>
-      </c>
       <c r="D15" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H15" s="21">
         <v>13</v>
@@ -2441,7 +2438,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K15" s="60" t="s">
         <v>20</v>
@@ -2476,24 +2473,24 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="100" t="s">
-        <v>159</v>
-      </c>
       <c r="D16" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>121</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="43" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c r="H16" s="44">
         <v>14</v>
@@ -2527,13 +2524,13 @@
         <v>133</v>
       </c>
       <c r="S16" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="T16" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="U16" s="49" t="s">
         <v>171</v>
-      </c>
-      <c r="T16" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="U16" s="49" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2541,18 +2538,18 @@
         <v>17</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D17" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="25"/>
       <c r="G17" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H17" s="21">
         <v>15</v>
@@ -2561,7 +2558,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>19</v>
@@ -2582,13 +2579,13 @@
         <v>133</v>
       </c>
       <c r="S17" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="U17" s="37" t="s">
         <v>171</v>
-      </c>
-      <c r="T17" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="U17" s="37" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2596,20 +2593,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D18" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H18" s="21">
         <v>16</v>
@@ -2618,7 +2615,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
@@ -2642,7 +2639,7 @@
         <v>142</v>
       </c>
       <c r="T18" s="65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U18" s="63" t="s">
         <v>143</v>
@@ -2653,20 +2650,20 @@
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D19" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F19" s="55"/>
       <c r="G19" s="56" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H19" s="21">
         <v>17</v>
@@ -2675,7 +2672,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K19" s="60" t="s">
         <v>20</v>
@@ -2712,20 +2709,20 @@
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D20" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H20" s="5">
         <v>18</v>
@@ -2734,7 +2731,7 @@
         <v>19</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -2755,13 +2752,13 @@
         <v>133</v>
       </c>
       <c r="S20" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="U20" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2769,20 +2766,20 @@
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D21" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H21" s="21">
         <v>19</v>
@@ -2791,7 +2788,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>20</v>
@@ -2817,7 +2814,7 @@
         <v>123</v>
       </c>
       <c r="T21" s="39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U21" s="37" t="s">
         <v>124</v>
@@ -2828,20 +2825,20 @@
         <v>17</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D22" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H22" s="21">
         <v>20</v>
@@ -2850,7 +2847,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
@@ -2871,13 +2868,13 @@
         <v>133</v>
       </c>
       <c r="S22" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="U22" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2885,20 +2882,20 @@
         <v>17</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D23" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H23" s="21">
         <v>21</v>
@@ -2907,7 +2904,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -2933,7 +2930,7 @@
         <v>123</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>124</v>
@@ -2944,20 +2941,20 @@
         <v>17</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D24" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H24" s="21">
         <v>22</v>
@@ -2966,7 +2963,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -2986,16 +2983,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S24" s="10" t="s">
+      <c r="T24" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="U24" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3003,20 +3000,20 @@
         <v>17</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D25" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F25" s="55"/>
       <c r="G25" s="56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H25" s="5">
         <v>23</v>
@@ -3025,7 +3022,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K25" s="60" t="s">
         <v>19</v>
@@ -3046,13 +3043,13 @@
         <v>133</v>
       </c>
       <c r="S25" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="T25" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="U25" s="63" t="s">
         <v>171</v>
-      </c>
-      <c r="T25" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="U25" s="63" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3060,20 +3057,20 @@
         <v>17</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D26" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F26" s="55"/>
       <c r="G26" s="56" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H26" s="57">
         <v>24</v>
@@ -3082,7 +3079,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="59" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K26" s="60" t="s">
         <v>20</v>
@@ -3095,7 +3092,7 @@
         <v>32</v>
       </c>
       <c r="O26" s="55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P26" s="55" t="s">
         <v>20</v>
@@ -3117,24 +3114,24 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="103" t="s">
-        <v>159</v>
-      </c>
       <c r="D27" s="40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H27" s="44">
         <v>25</v>
@@ -3143,7 +3140,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K27" s="46" t="s">
         <v>19</v>
@@ -3168,13 +3165,13 @@
         <v>133</v>
       </c>
       <c r="S27" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="T27" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="U27" s="49" t="s">
         <v>171</v>
-      </c>
-      <c r="T27" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="U27" s="49" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3182,18 +3179,18 @@
         <v>17</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D28" s="32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="25"/>
       <c r="G28" s="34" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H28" s="21">
         <v>26</v>
@@ -3202,7 +3199,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K28" s="23" t="s">
         <v>20</v>
@@ -3228,7 +3225,7 @@
         <v>125</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U28" s="37" t="s">
         <v>127</v>
@@ -3239,20 +3236,20 @@
         <v>17</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D29" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H29" s="21">
         <v>27</v>
@@ -3261,7 +3258,7 @@
         <v>19</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
@@ -3279,16 +3276,16 @@
         <v>144</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="S29" s="63" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="T29" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="U29" s="63" t="s">
         <v>235</v>
-      </c>
-      <c r="U29" s="63" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3296,20 +3293,20 @@
         <v>17</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D30" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H30" s="21">
         <v>28</v>
@@ -3318,7 +3315,7 @@
         <v>19</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>19</v>
@@ -3336,16 +3333,16 @@
         <v>140</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3353,22 +3350,22 @@
         <v>17</v>
       </c>
       <c r="B31" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D31" s="32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H31" s="21">
         <v>29</v>
@@ -3377,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K31" s="23" t="s">
         <v>19</v>
@@ -3392,19 +3389,19 @@
         <v>19</v>
       </c>
       <c r="Q31" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R31" s="38" t="s">
         <v>141</v>
       </c>
       <c r="S31" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="T31" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="U31" s="37" t="s">
         <v>165</v>
-      </c>
-      <c r="T31" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="U31" s="37" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3412,22 +3409,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D32" s="32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H32" s="21">
         <v>30</v>
@@ -3436,7 +3433,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K32" s="23" t="s">
         <v>19</v>
@@ -3457,34 +3454,34 @@
         <v>141</v>
       </c>
       <c r="S32" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T32" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U32" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="68" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="103" t="s">
-        <v>159</v>
-      </c>
       <c r="D33" s="40" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="43" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="H33" s="44">
         <v>31</v>
@@ -3493,7 +3490,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="45" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K33" s="46" t="s">
         <v>19</v>
@@ -3504,7 +3501,7 @@
       <c r="M33" s="48"/>
       <c r="N33" s="48"/>
       <c r="O33" s="42" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P33" s="42" t="s">
         <v>19</v>
@@ -3516,13 +3513,13 @@
         <v>141</v>
       </c>
       <c r="S33" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T33" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U33" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3530,10 +3527,10 @@
         <v>17</v>
       </c>
       <c r="B34" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>158</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>159</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>128</v>
@@ -3541,7 +3538,7 @@
       <c r="E34" s="33"/>
       <c r="F34" s="25"/>
       <c r="G34" s="34" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H34" s="21">
         <v>32</v>
@@ -3550,7 +3547,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K34" s="23" t="s">
         <v>19</v>
@@ -3573,13 +3570,13 @@
         <v>133</v>
       </c>
       <c r="S34" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="T34" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="U34" s="37" t="s">
         <v>171</v>
-      </c>
-      <c r="T34" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="U34" s="37" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3587,10 +3584,10 @@
         <v>17</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>158</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>159</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>128</v>
@@ -3598,7 +3595,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
       <c r="G35" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H35" s="21">
         <v>33</v>
@@ -3607,7 +3604,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>19</v>
@@ -3630,13 +3627,13 @@
         <v>133</v>
       </c>
       <c r="S35" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="U35" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="U35" s="10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3644,10 +3641,10 @@
         <v>17</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>158</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>159</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>128</v>
@@ -3655,7 +3652,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
       <c r="G36" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H36" s="21">
         <v>34</v>
@@ -3664,7 +3661,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>19</v>
@@ -3681,19 +3678,19 @@
         <v>19</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R36" s="11" t="s">
         <v>141</v>
       </c>
       <c r="S36" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="U36" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="T36" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="U36" s="10" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3701,10 +3698,10 @@
         <v>17</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>158</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>159</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>129</v>
@@ -3721,7 +3718,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>20</v>
@@ -3745,11 +3742,11 @@
       <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="72" t="s">
         <v>158</v>
-      </c>
-      <c r="C38" s="97" t="s">
-        <v>159</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>129</v>
@@ -3766,7 +3763,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>20</v>
@@ -3799,14 +3796,14 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="75" t="s">
         <v>158</v>
-      </c>
-      <c r="C39" s="100" t="s">
-        <v>159</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>129</v>
@@ -3814,7 +3811,7 @@
       <c r="E39" s="41"/>
       <c r="F39" s="42"/>
       <c r="G39" s="43" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H39" s="44">
         <v>37</v>
@@ -3823,7 +3820,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="45" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K39" s="46" t="s">
         <v>20</v>
@@ -4862,6 +4859,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4876,12 +4879,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado09/guion11/ES_CN_09_11_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion11/ES_CN_09_11_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MIS DOCUMENTOS\Desktop\CienciasNaturales\fuentes\contenidos\grado09\guion11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado09\guion11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$39</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1204,16 +1204,34 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1259,24 +1277,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1586,9 +1586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,94 +1616,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="100" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="K1" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="87" t="s">
+      <c r="L1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="93" t="s">
+      <c r="M1" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="81" t="s">
+      <c r="N1" s="99"/>
+      <c r="O1" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="81" t="s">
+      <c r="P1" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="98" t="s">
+      <c r="Q1" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="102" t="s">
+      <c r="R1" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="98" t="s">
+      <c r="S1" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="100" t="s">
+      <c r="T1" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="98" t="s">
+      <c r="U1" s="81" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="88"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="94"/>
       <c r="M2" s="27" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="99"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="82"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4855,16 +4855,10 @@
     <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U38">
+  <autoFilter ref="A1:U39">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4879,6 +4873,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado09/guion11/ES_CN_09_11_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion11/ES_CN_09_11_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado09\guion11\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="7695"/>
   </bookViews>
@@ -16,14 +11,14 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$280</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="262">
   <si>
     <t>Asignatura</t>
   </si>
@@ -441,9 +436,6 @@
   </si>
   <si>
     <t>Recurso M4A-03</t>
-  </si>
-  <si>
-    <t>m102ab</t>
   </si>
   <si>
     <t>3º ESO</t>
@@ -1048,7 +1040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1156,9 +1148,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1204,34 +1193,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1277,6 +1248,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1340,7 +1329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1375,7 +1364,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1584,11 +1573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U280"/>
+  <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4:K36"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,122 +1595,122 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="43" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="56" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="87" t="s">
+      <c r="E1" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="93" t="s">
+      <c r="L1" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="99" t="s">
+      <c r="M1" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="99"/>
-      <c r="O1" s="79" t="s">
+      <c r="N1" s="92"/>
+      <c r="O1" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="79" t="s">
+      <c r="P1" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="81" t="s">
+      <c r="Q1" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="S1" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="U1" s="97" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="94"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="87"/>
       <c r="M2" s="27" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="82"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="98"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="21"/>
       <c r="G3" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
@@ -1730,7 +1719,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>20</v>
@@ -1767,20 +1756,20 @@
         <v>17</v>
       </c>
       <c r="B4" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>159</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H4" s="21">
         <v>2</v>
@@ -1788,8 +1777,8 @@
       <c r="I4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="66" t="s">
-        <v>162</v>
+      <c r="J4" s="65" t="s">
+        <v>161</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>19</v>
@@ -1804,19 +1793,19 @@
         <v>19</v>
       </c>
       <c r="Q4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1824,20 +1813,20 @@
         <v>17</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>159</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H5" s="21">
         <v>3</v>
@@ -1846,7 +1835,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>20</v>
@@ -1872,7 +1861,7 @@
         <v>123</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U5" s="10" t="s">
         <v>124</v>
@@ -1883,22 +1872,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="D6" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>159</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="21">
         <v>4</v>
@@ -1907,7 +1896,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -1922,60 +1911,60 @@
         <v>19</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R6" s="11" t="s">
         <v>133</v>
       </c>
       <c r="S6" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="U6" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="D7" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>159</v>
-      </c>
       <c r="E7" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="21">
+        <v>5</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="57">
-        <v>5</v>
-      </c>
-      <c r="I7" s="58" t="s">
+      <c r="K7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="K7" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="61" t="s">
+      <c r="L7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62" t="s">
+      <c r="M7" s="61"/>
+      <c r="N7" s="61" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="55" t="s">
@@ -2001,33 +1990,33 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="D8" s="40" t="s">
         <v>158</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>159</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>121</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="H8" s="44">
+        <v>259</v>
+      </c>
+      <c r="H8" s="21">
         <v>6</v>
       </c>
       <c r="I8" s="44" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K8" s="46" t="s">
         <v>19</v>
@@ -2040,25 +2029,25 @@
         <v>52</v>
       </c>
       <c r="O8" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="S8" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="T8" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="P8" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="R8" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="S8" s="49" t="s">
+      <c r="U8" s="49" t="s">
         <v>164</v>
-      </c>
-      <c r="T8" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="U8" s="49" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2066,18 +2055,18 @@
         <v>17</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D9" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="25"/>
       <c r="G9" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H9" s="21">
         <v>7</v>
@@ -2086,7 +2075,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>20</v>
@@ -2114,7 +2103,7 @@
         <v>125</v>
       </c>
       <c r="T9" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U9" s="37" t="s">
         <v>127</v>
@@ -2125,20 +2114,20 @@
         <v>17</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D10" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H10" s="21">
         <v>8</v>
@@ -2147,7 +2136,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
@@ -2162,19 +2151,19 @@
         <v>19</v>
       </c>
       <c r="Q10" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="S10" s="10" t="s">
+      <c r="T10" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2182,20 +2171,20 @@
         <v>17</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D11" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H11" s="21">
         <v>9</v>
@@ -2204,7 +2193,7 @@
         <v>19</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2219,19 +2208,19 @@
         <v>19</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R11" s="11" t="s">
         <v>133</v>
       </c>
       <c r="S11" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2239,20 +2228,20 @@
         <v>17</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D12" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H12" s="21">
         <v>10</v>
@@ -2261,7 +2250,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -2287,7 +2276,7 @@
         <v>123</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U12" s="10" t="s">
         <v>124</v>
@@ -2298,20 +2287,20 @@
         <v>17</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D13" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H13" s="21">
         <v>11</v>
@@ -2320,7 +2309,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -2335,19 +2324,19 @@
         <v>19</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R13" s="11" t="s">
         <v>133</v>
       </c>
       <c r="S13" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="U13" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="U13" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2355,22 +2344,22 @@
         <v>17</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D14" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>196</v>
       </c>
       <c r="H14" s="21">
         <v>12</v>
@@ -2379,7 +2368,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2394,60 +2383,60 @@
         <v>19</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R14" s="11" t="s">
         <v>133</v>
       </c>
       <c r="S14" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="72" t="s">
-        <v>158</v>
-      </c>
       <c r="D15" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H15" s="21">
         <v>13</v>
       </c>
-      <c r="I15" s="58" t="s">
+      <c r="I15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="K15" s="60" t="s">
+      <c r="J15" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="61" t="s">
+      <c r="L15" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62" t="s">
+      <c r="M15" s="61"/>
+      <c r="N15" s="61" t="s">
         <v>32</v>
       </c>
       <c r="O15" s="55" t="s">
@@ -2456,10 +2445,10 @@
       <c r="P15" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="63">
+      <c r="Q15" s="62">
         <v>6</v>
       </c>
-      <c r="R15" s="64" t="s">
+      <c r="R15" s="63" t="s">
         <v>122</v>
       </c>
       <c r="S15" s="10" t="s">
@@ -2469,37 +2458,37 @@
         <v>137</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="75" t="s">
-        <v>158</v>
-      </c>
       <c r="D16" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>121</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="H16" s="44">
+        <v>260</v>
+      </c>
+      <c r="H16" s="21">
         <v>14</v>
       </c>
       <c r="I16" s="44" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K16" s="46" t="s">
         <v>19</v>
@@ -2508,9 +2497,7 @@
         <v>8</v>
       </c>
       <c r="M16" s="48"/>
-      <c r="N16" s="48" t="s">
-        <v>52</v>
-      </c>
+      <c r="N16" s="48"/>
       <c r="O16" s="42" t="s">
         <v>135</v>
       </c>
@@ -2518,19 +2505,19 @@
         <v>19</v>
       </c>
       <c r="Q16" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R16" s="50" t="s">
         <v>133</v>
       </c>
       <c r="S16" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="T16" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="U16" s="49" t="s">
         <v>170</v>
-      </c>
-      <c r="T16" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="U16" s="49" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2538,18 +2525,18 @@
         <v>17</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D17" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="25"/>
       <c r="G17" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H17" s="21">
         <v>15</v>
@@ -2558,7 +2545,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>19</v>
@@ -2573,40 +2560,40 @@
         <v>19</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R17" s="38" t="s">
         <v>133</v>
       </c>
       <c r="S17" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="U17" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="T17" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="U17" s="37" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D18" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H18" s="21">
         <v>16</v>
@@ -2615,7 +2602,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
@@ -2630,19 +2617,19 @@
         <v>19</v>
       </c>
       <c r="Q18" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="S18" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="S18" s="63" t="s">
+      <c r="T18" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="U18" s="62" t="s">
         <v>142</v>
-      </c>
-      <c r="T18" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="U18" s="63" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2650,48 +2637,48 @@
         <v>17</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D19" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F19" s="55"/>
       <c r="G19" s="56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H19" s="21">
         <v>17</v>
       </c>
-      <c r="I19" s="58" t="s">
+      <c r="I19" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="K19" s="60" t="s">
+      <c r="J19" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="61" t="s">
+      <c r="L19" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62" t="s">
+      <c r="M19" s="61"/>
+      <c r="N19" s="61" t="s">
         <v>26</v>
       </c>
       <c r="O19" s="55"/>
       <c r="P19" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="63">
+      <c r="Q19" s="62">
         <v>6</v>
       </c>
-      <c r="R19" s="64" t="s">
+      <c r="R19" s="63" t="s">
         <v>122</v>
       </c>
       <c r="S19" s="10" t="s">
@@ -2709,29 +2696,29 @@
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D20" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="21">
+        <v>18</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>208</v>
-      </c>
-      <c r="H20" s="5">
-        <v>18</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>209</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -2746,19 +2733,19 @@
         <v>19</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R20" s="11" t="s">
         <v>133</v>
       </c>
       <c r="S20" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="U20" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2766,20 +2753,20 @@
         <v>17</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D21" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H21" s="21">
         <v>19</v>
@@ -2788,7 +2775,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>20</v>
@@ -2814,7 +2801,7 @@
         <v>123</v>
       </c>
       <c r="T21" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U21" s="37" t="s">
         <v>124</v>
@@ -2825,20 +2812,20 @@
         <v>17</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D22" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H22" s="21">
         <v>20</v>
@@ -2847,7 +2834,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
@@ -2862,19 +2849,19 @@
         <v>19</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R22" s="11" t="s">
         <v>133</v>
       </c>
       <c r="S22" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="U22" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2882,20 +2869,20 @@
         <v>17</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D23" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H23" s="21">
         <v>21</v>
@@ -2904,7 +2891,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
@@ -2930,7 +2917,7 @@
         <v>123</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U23" s="10" t="s">
         <v>124</v>
@@ -2941,20 +2928,20 @@
         <v>17</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D24" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H24" s="21">
         <v>22</v>
@@ -2963,7 +2950,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -2983,16 +2970,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="S24" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="S24" s="10" t="s">
+      <c r="T24" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="U24" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3000,56 +2987,56 @@
         <v>17</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D25" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F25" s="55"/>
       <c r="G25" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" s="21">
+        <v>23</v>
+      </c>
+      <c r="I25" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="5">
-        <v>23</v>
-      </c>
-      <c r="I25" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="K25" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="61" t="s">
+      <c r="K25" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
       <c r="O25" s="55"/>
       <c r="P25" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="R25" s="64" t="s">
+      <c r="Q25" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="R25" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="S25" s="63" t="s">
+      <c r="S25" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="T25" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="U25" s="62" t="s">
         <v>170</v>
-      </c>
-      <c r="T25" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="U25" s="63" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3057,90 +3044,90 @@
         <v>17</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D26" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="E26" s="70" t="s">
-        <v>218</v>
+        <v>200</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>217</v>
       </c>
       <c r="F26" s="55"/>
       <c r="G26" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" s="21">
+        <v>24</v>
+      </c>
+      <c r="I26" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="H26" s="57">
-        <v>24</v>
-      </c>
-      <c r="I26" s="58" t="s">
+      <c r="K26" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="59" t="s">
+      <c r="L26" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="55" t="s">
         <v>225</v>
-      </c>
-      <c r="K26" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="55" t="s">
-        <v>226</v>
       </c>
       <c r="P26" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="Q26" s="63">
+      <c r="Q26" s="62">
         <v>6</v>
       </c>
-      <c r="R26" s="64" t="s">
+      <c r="R26" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="S26" s="63" t="s">
+      <c r="S26" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="T26" s="65" t="s">
+      <c r="T26" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="U26" s="63" t="s">
-        <v>143</v>
+      <c r="U26" s="62" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="78" t="s">
-        <v>158</v>
-      </c>
       <c r="D27" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="H27" s="44">
+        <v>227</v>
+      </c>
+      <c r="H27" s="21">
         <v>25</v>
       </c>
       <c r="I27" s="44" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K27" s="46" t="s">
         <v>19</v>
@@ -3149,9 +3136,7 @@
         <v>8</v>
       </c>
       <c r="M27" s="48"/>
-      <c r="N27" s="48" t="s">
-        <v>52</v>
-      </c>
+      <c r="N27" s="48"/>
       <c r="O27" s="42" t="s">
         <v>135</v>
       </c>
@@ -3159,19 +3144,19 @@
         <v>19</v>
       </c>
       <c r="Q27" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R27" s="50" t="s">
         <v>133</v>
       </c>
       <c r="S27" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="T27" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="U27" s="49" t="s">
         <v>170</v>
-      </c>
-      <c r="T27" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="U27" s="49" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3179,18 +3164,18 @@
         <v>17</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D28" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="25"/>
       <c r="G28" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H28" s="21">
         <v>26</v>
@@ -3199,7 +3184,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K28" s="23" t="s">
         <v>20</v>
@@ -3225,7 +3210,7 @@
         <v>125</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U28" s="37" t="s">
         <v>127</v>
@@ -3236,20 +3221,20 @@
         <v>17</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D29" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H29" s="21">
         <v>27</v>
@@ -3258,7 +3243,7 @@
         <v>19</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
@@ -3273,40 +3258,40 @@
         <v>19</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R29" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="S29" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="S29" s="63" t="s">
+      <c r="T29" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="U29" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="T29" s="65" t="s">
-        <v>232</v>
-      </c>
-      <c r="U29" s="63" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:21" s="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D30" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H30" s="21">
         <v>28</v>
@@ -3315,7 +3300,7 @@
         <v>19</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>19</v>
@@ -3330,42 +3315,42 @@
         <v>19</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T30" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="U30" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="U30" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="67" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:21" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D31" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E31" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F31" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="G31" s="34" t="s">
         <v>241</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>242</v>
       </c>
       <c r="H31" s="21">
         <v>29</v>
@@ -3374,7 +3359,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K31" s="23" t="s">
         <v>19</v>
@@ -3389,19 +3374,19 @@
         <v>19</v>
       </c>
       <c r="Q31" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="R31" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="S31" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="R31" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="S31" s="37" t="s">
+      <c r="T31" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="U31" s="37" t="s">
         <v>164</v>
-      </c>
-      <c r="T31" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="U31" s="37" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3409,22 +3394,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D32" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="F32" s="25" t="s">
-        <v>241</v>
-      </c>
       <c r="G32" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H32" s="21">
         <v>30</v>
@@ -3433,7 +3418,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K32" s="23" t="s">
         <v>19</v>
@@ -3448,49 +3433,49 @@
         <v>19</v>
       </c>
       <c r="Q32" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="R32" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="R32" s="38" t="s">
-        <v>141</v>
-      </c>
       <c r="S32" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T32" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U32" s="37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" s="68" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="67" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="78" t="s">
-        <v>158</v>
-      </c>
       <c r="D33" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="H33" s="44">
+        <v>261</v>
+      </c>
+      <c r="H33" s="21">
         <v>31</v>
       </c>
       <c r="I33" s="44" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K33" s="46" t="s">
         <v>19</v>
@@ -3501,25 +3486,25 @@
       <c r="M33" s="48"/>
       <c r="N33" s="48"/>
       <c r="O33" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P33" s="42" t="s">
         <v>19</v>
       </c>
       <c r="Q33" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="R33" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="R33" s="50" t="s">
-        <v>141</v>
-      </c>
       <c r="S33" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T33" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U33" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3527,10 +3512,10 @@
         <v>17</v>
       </c>
       <c r="B34" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>128</v>
@@ -3538,7 +3523,7 @@
       <c r="E34" s="33"/>
       <c r="F34" s="25"/>
       <c r="G34" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H34" s="21">
         <v>32</v>
@@ -3547,7 +3532,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K34" s="23" t="s">
         <v>19</v>
@@ -3556,27 +3541,25 @@
         <v>8</v>
       </c>
       <c r="M34" s="24"/>
-      <c r="N34" s="24" t="s">
-        <v>139</v>
-      </c>
+      <c r="N34" s="24"/>
       <c r="O34" s="25"/>
       <c r="P34" s="25" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R34" s="38" t="s">
         <v>133</v>
       </c>
       <c r="S34" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="T34" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="U34" s="37" t="s">
         <v>170</v>
-      </c>
-      <c r="T34" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="U34" s="37" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3584,10 +3567,10 @@
         <v>17</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>128</v>
@@ -3595,7 +3578,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
       <c r="G35" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H35" s="21">
         <v>33</v>
@@ -3604,7 +3587,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>19</v>
@@ -3613,27 +3596,25 @@
         <v>8</v>
       </c>
       <c r="M35" s="8"/>
-      <c r="N35" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="N35" s="8"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R35" s="11" t="s">
         <v>133</v>
       </c>
       <c r="S35" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="U35" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="U35" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3641,10 +3622,10 @@
         <v>17</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>128</v>
@@ -3652,7 +3633,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
       <c r="G36" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H36" s="21">
         <v>34</v>
@@ -3661,7 +3642,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>19</v>
@@ -3670,27 +3651,25 @@
         <v>8</v>
       </c>
       <c r="M36" s="8"/>
-      <c r="N36" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="N36" s="8"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9" t="s">
         <v>19</v>
       </c>
       <c r="Q36" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="S36" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="R36" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="S36" s="10" t="s">
+      <c r="T36" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="U36" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="T36" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="U36" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3698,10 +3677,10 @@
         <v>17</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>158</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>129</v>
@@ -3718,7 +3697,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>20</v>
@@ -3742,11 +3721,11 @@
       <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="71" t="s">
         <v>157</v>
-      </c>
-      <c r="C38" s="72" t="s">
-        <v>158</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>129</v>
@@ -3763,7 +3742,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>20</v>
@@ -3796,14 +3775,14 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="74" t="s">
         <v>157</v>
-      </c>
-      <c r="C39" s="75" t="s">
-        <v>158</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>129</v>
@@ -3811,16 +3790,16 @@
       <c r="E39" s="41"/>
       <c r="F39" s="42"/>
       <c r="G39" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="H39" s="44">
+        <v>258</v>
+      </c>
+      <c r="H39" s="21">
         <v>37</v>
       </c>
       <c r="I39" s="44" t="s">
         <v>20</v>
       </c>
       <c r="J39" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K39" s="46" t="s">
         <v>20</v>
@@ -3855,7 +3834,7 @@
     <row r="40" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="33"/>
-      <c r="C40" s="69"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="32"/>
       <c r="E40" s="33"/>
       <c r="F40" s="25"/>
@@ -4493,372 +4472,199 @@
       <c r="Q67" s="10"/>
       <c r="R67" s="11"/>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U39">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4873,12 +4679,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
